--- a/relatorios/base de dados/CONDOMINIO UP JARDIM PRUDENCIA ECN 2025_02_05 18_23_59.xlsx
+++ b/relatorios/base de dados/CONDOMINIO UP JARDIM PRUDENCIA ECN 2025_02_05 18_23_59.xlsx
@@ -4982,13 +4982,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99DFCB6B-5629-4A41-939B-B5AC32F472BC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5205FEA9-2C65-4DD2-AF7A-4125C01E2069}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{055090D8-71C4-4D33-B8AF-11466ED3909E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74819AAE-61F1-4DE0-A902-C2AC57F6AD01}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3EF6EB5D-A6AE-4BA5-BF21-EAFAB7951343}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0DF2E5A8-5CE1-4EB9-9860-ED2A809AD626}"/>
 </file>
--- a/relatorios/base de dados/CONDOMINIO UP JARDIM PRUDENCIA ECN 2025_02_05 18_23_59.xlsx
+++ b/relatorios/base de dados/CONDOMINIO UP JARDIM PRUDENCIA ECN 2025_02_05 18_23_59.xlsx
@@ -4982,13 +4982,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5205FEA9-2C65-4DD2-AF7A-4125C01E2069}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E3B290B-ABC2-4BDE-85B1-7E199186E53B}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74819AAE-61F1-4DE0-A902-C2AC57F6AD01}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{598C3AF7-9668-4A7A-8E5F-89D9E4C94FD6}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0DF2E5A8-5CE1-4EB9-9860-ED2A809AD626}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CB56CFC6-64C1-4FB8-8535-83269DF79DA3}"/>
 </file>